--- a/admin/template.xlsx
+++ b/admin/template.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sir Jaysan Files\share\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CPU\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDB735D6-CF18-43E4-8517-727E3901CE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{993873FB-1A04-48FD-9666-DA2B3D18BECB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>QTY/UNIT</t>
   </si>
@@ -134,19 +133,16 @@
     <t xml:space="preserve">  Budget Controller</t>
   </si>
   <si>
-    <t>(If above P 100,000)</t>
-  </si>
-  <si>
     <t>Unit/Dept:________________________________</t>
   </si>
   <si>
-    <t>Please use additional paper if the request is more than 10 items</t>
+    <t>(If above P 50,000)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,21 +200,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -305,6 +286,19 @@
       <bottom style="hair">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -318,36 +312,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -419,51 +415,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1381125" cy="483734"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3FF0B3-2944-40D2-AF59-BAB43FF0E986}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19050" y="0"/>
-          <a:ext cx="1381125" cy="483734"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -763,11 +714,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7596682-AB32-4C41-9E4C-3D61047C4A33}">
-  <dimension ref="A1:P54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +731,7 @@
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="J1" s="3" t="s">
         <v>3</v>
@@ -788,36 +739,36 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -832,217 +783,183 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
-        <v>1</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+    <row r="6" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
+    <row r="8" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
-        <v>4</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
-        <v>5</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
+    <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
-        <v>6</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
+    <row r="11" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
-        <v>7</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+    <row r="12" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
-        <v>8</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+    <row r="13" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
-        <v>9</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
+    <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
-        <v>10</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
+    <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
@@ -1062,85 +979,85 @@
       <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
+      <c r="A18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="17"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="17"/>
+      <c r="L19" s="14"/>
       <c r="M19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="17"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="17"/>
+      <c r="L20" s="14"/>
       <c r="M20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="17"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="17"/>
+      <c r="L21" s="14"/>
       <c r="M21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="5"/>
@@ -1151,65 +1068,65 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="21" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="17"/>
+      <c r="L22" s="14"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="17"/>
+      <c r="L23" s="14"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="23"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="20"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="23"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="20"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
@@ -1222,471 +1139,53 @@
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="J31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="26">
-        <v>1</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="26">
-        <v>2</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="26">
-        <v>3</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="26">
-        <v>4</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="26">
-        <v>5</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="26">
-        <v>6</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="26">
-        <v>7</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="26">
-        <v>8</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="26">
-        <v>9</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="26">
-        <v>10</v>
-      </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="15"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="17"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="17"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="17"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L52" s="17"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L53" s="17"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="23"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
+  <mergeCells count="23">
     <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="A16:L16"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="I14:L14"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="I6:L6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="I11:L11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="10000" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="10000" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BC715A-99F7-4887-9F78-0159327E13F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
